--- a/excel/WBS_webfuzzer.xlsx
+++ b/excel/WBS_webfuzzer.xlsx
@@ -213,9 +213,11 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +260,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border/>
@@ -418,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -482,9 +490,8 @@
     <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="8" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="4" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -891,100 +898,100 @@
       <c r="D8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="9">
       <c r="A9" s="21"/>
-      <c r="B9" s="31"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="23" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10">
       <c r="A10" s="21"/>
-      <c r="B10" s="31"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11">
       <c r="A11" s="21"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12">
       <c r="A12" s="21"/>
-      <c r="B12" s="31"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
     </row>
     <row r="13">
       <c r="A13" s="21"/>
-      <c r="B13" s="31"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="23" t="s">
         <v>36</v>
       </c>
@@ -999,20 +1006,20 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="20"/>
@@ -1023,8 +1030,8 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
     </row>
     <row r="15">
       <c r="A15" s="21"/>
@@ -1043,8 +1050,8 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
     </row>
     <row r="16">
       <c r="A16" s="12"/>
@@ -1065,20 +1072,20 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="34" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="20"/>
